--- a/reports/_MSC MEDITERRANEAN SHIPP. CO.BD.LTD_ISPAHANI SUMMIT ALLIANCE TERMINALS LIMITED_container_report_2018-12-27_16_.xlsx
+++ b/reports/_MSC MEDITERRANEAN SHIPP. CO.BD.LTD_ISPAHANI SUMMIT ALLIANCE TERMINALS LIMITED_container_report_2018-12-27_16_.xlsx
@@ -3429,11 +3429,11 @@
         <v>34</v>
       </c>
       <c r="Q26" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R26" s="0" t="inlineStr">
         <is>
-          <t>Empty</t>
+          <t>Laden</t>
         </is>
       </c>
       <c r="S26" s="0"/>
